--- a/Software Comparador/Machotes/Machote para nuevo cliente.xlsx
+++ b/Software Comparador/Machotes/Machote para nuevo cliente.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Projects\ComparadorLCM\Software Comparador\Machotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AECB2C-7140-C34D-BAA2-91BE8416D18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63866DA5-C216-4FF3-8D8B-105F75919F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15760" xr2:uid="{6EF4F2FA-BF76-AF4C-A6DA-FE3DB8F5D9A6}"/>
+    <workbookView xWindow="-20610" yWindow="6345" windowWidth="20730" windowHeight="11040" xr2:uid="{6EF4F2FA-BF76-AF4C-A6DA-FE3DB8F5D9A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja Referencia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -229,19 +229,7 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -276,6 +264,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,150 +594,152 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="5" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="5" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -747,13 +749,11 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
